--- a/data/trans_orig/P16A17-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Dificultad-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1113,7 +1113,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1686,7 +1686,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2243,7 +2243,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A17-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>6305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2867</v>
+        <v>2041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13174</v>
+        <v>12329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006843778294022567</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003111711354493044</v>
+        <v>0.002215213625474817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01429862378598793</v>
+        <v>0.01338158952088004</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>915034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>908165</v>
+        <v>909010</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>918472</v>
+        <v>919298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9931562217059774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9857013762140121</v>
+        <v>0.9866184104791206</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968882886455069</v>
+        <v>0.9977847863745256</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>5941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2703</v>
+        <v>2500</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13397</v>
+        <v>14152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005622008676595684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002557592988839722</v>
+        <v>0.002365639136718862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01267892990875125</v>
+        <v>0.01339320270925064</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1050733</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1043277</v>
+        <v>1042522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1053971</v>
+        <v>1054174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9943779913234043</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.987321070091249</v>
+        <v>0.986606797290749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974424070111603</v>
+        <v>0.9976343608632809</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>9908</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4924</v>
+        <v>4831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16597</v>
+        <v>17013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009968359253753417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004954133950903715</v>
+        <v>0.004860779355066388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01669850093825499</v>
+        <v>0.01711629362742932</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>984032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>977343</v>
+        <v>976927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>989016</v>
+        <v>989109</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9900316407462466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9833014990617456</v>
+        <v>0.9828837063725708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9950458660490964</v>
+        <v>0.9951392206449337</v>
       </c>
     </row>
     <row r="12">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6036</v>
+        <v>7027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005670178482852348</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01769360222311134</v>
+        <v>0.02059860986280683</v>
       </c>
     </row>
     <row r="14">
@@ -926,7 +926,7 @@
         <v>339224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335122</v>
+        <v>334131</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>341158</v>
@@ -935,7 +935,7 @@
         <v>0.9943298215171477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9823063977768887</v>
+        <v>0.9794013901371939</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -988,19 +988,19 @@
         <v>24088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16502</v>
+        <v>15649</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35957</v>
+        <v>36298</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007270642764022823</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004980782308278286</v>
+        <v>0.004723463795405753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01085296958178146</v>
+        <v>0.01095600165423465</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>3289023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3277154</v>
+        <v>3276813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3296609</v>
+        <v>3297462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9927293572359772</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9891470304182188</v>
+        <v>0.9890439983457651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9950192176917219</v>
+        <v>0.995276536204594</v>
       </c>
     </row>
     <row r="18">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5821</v>
+        <v>5172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0008718371820571899</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.005245326398389209</v>
+        <v>0.00466079237433742</v>
       </c>
     </row>
     <row r="5">
@@ -1226,7 +1226,7 @@
         <v>1108770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1103917</v>
+        <v>1104566</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1109738</v>
@@ -1235,7 +1235,7 @@
         <v>0.9991281628179428</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9947546736016107</v>
+        <v>0.9953392076256613</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>10061</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4126</v>
+        <v>4860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19789</v>
+        <v>18742</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009229739361915963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00378459518376641</v>
+        <v>0.004458438284160737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01815344028091194</v>
+        <v>0.01719357140761119</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>1080017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1070289</v>
+        <v>1071336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1085952</v>
+        <v>1085218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.990770260638084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.981846559719088</v>
+        <v>0.9828064285923893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9962154048162336</v>
+        <v>0.9955415617158393</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>4170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1033</v>
+        <v>1157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10326</v>
+        <v>11229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004783256620358838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001184388670220305</v>
+        <v>0.001326801746408707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01184374171304899</v>
+        <v>0.01288032788527629</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>867643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>861487</v>
+        <v>860584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>870780</v>
+        <v>870656</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9952167433796412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9881562582869513</v>
+        <v>0.9871196721147245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9988156113297797</v>
+        <v>0.9986731982535914</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>6492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2309</v>
+        <v>2360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16322</v>
+        <v>15452</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0144668658176664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005144829332464198</v>
+        <v>0.005258771206597936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03637533201997768</v>
+        <v>0.03443531174453485</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>442228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>432398</v>
+        <v>433268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>446411</v>
+        <v>446360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9855331341823336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9636246679800221</v>
+        <v>0.965564688255465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9948551706675357</v>
+        <v>0.9947412287934021</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>21690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13191</v>
+        <v>14014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32709</v>
+        <v>33878</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006161412352062024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003746956137504297</v>
+        <v>0.003980912117611118</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009291436983659312</v>
+        <v>0.009623365893714658</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>3498659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3487640</v>
+        <v>3486471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3507158</v>
+        <v>3506335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.993838587647938</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9907085630163406</v>
+        <v>0.9903766341062854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9962530438624957</v>
+        <v>0.9960190878823891</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>7462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2957</v>
+        <v>3186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15402</v>
+        <v>15290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00592458812231032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002347658545729648</v>
+        <v>0.00252946433556542</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01222771637817335</v>
+        <v>0.01213950689525799</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>1252099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1244159</v>
+        <v>1244271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1256604</v>
+        <v>1256375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9940754118776897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9877722836218265</v>
+        <v>0.9878604931047419</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976523414542703</v>
+        <v>0.9974705356644346</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>3134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8080</v>
+        <v>9044</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003113957613796255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0</v>
+        <v>0.0009704355215785998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008028445441241389</v>
+        <v>0.008985992571361519</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>1003341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>998395</v>
+        <v>997431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1006475</v>
+        <v>1005498</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9968860423862037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9919715545587587</v>
+        <v>0.9910140074286384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1</v>
+        <v>0.9990295644784214</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>7492</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3195</v>
+        <v>3170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14888</v>
+        <v>14067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009715971393155347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004143924707043981</v>
+        <v>0.004111422878499887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01930821085745407</v>
+        <v>0.01824333377729991</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>763567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>756171</v>
+        <v>756992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>767864</v>
+        <v>767889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902840286068446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.980691789142546</v>
+        <v>0.9817566662227001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9958560752929561</v>
+        <v>0.9958885771215001</v>
       </c>
     </row>
     <row r="12">
@@ -2118,19 +2118,19 @@
         <v>18088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10433</v>
+        <v>10496</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28804</v>
+        <v>28438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005128763802554437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002958349217831736</v>
+        <v>0.002976061569518095</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008167301745985433</v>
+        <v>0.008063410223191901</v>
       </c>
     </row>
     <row r="17">
@@ -2147,19 +2147,19 @@
         <v>3508704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3497988</v>
+        <v>3498354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3516359</v>
+        <v>3516296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9948712361974456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9918326982540147</v>
+        <v>0.9919365897768082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9970416507821682</v>
+        <v>0.9970239384304819</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>5050</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2104</v>
+        <v>2135</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10007</v>
+        <v>10052</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.008108743007201902</v>
+        <v>0.008108743007201904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003377387691970768</v>
+        <v>0.00342739987953152</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01606748982823811</v>
+        <v>0.01613961529131881</v>
       </c>
     </row>
     <row r="5">
@@ -2356,19 +2356,19 @@
         <v>617769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>612812</v>
+        <v>612767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>620715</v>
+        <v>620684</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9918912569927981</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983932510171762</v>
+        <v>0.9838603847086813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966226123080293</v>
+        <v>0.9965726001204684</v>
       </c>
     </row>
     <row r="6">
@@ -2418,19 +2418,19 @@
         <v>7097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3368</v>
+        <v>3594</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12163</v>
+        <v>12229</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00637589156204935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003025669068762102</v>
+        <v>0.003228745126534609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01092711137883402</v>
+        <v>0.01098602556252595</v>
       </c>
     </row>
     <row r="8">
@@ -2447,19 +2447,19 @@
         <v>1106003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1100937</v>
+        <v>1100871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1109732</v>
+        <v>1109506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9936241084379507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9890728886211662</v>
+        <v>0.9890139744374744</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969743309312379</v>
+        <v>0.9967712548734653</v>
       </c>
     </row>
     <row r="9">
@@ -2509,19 +2509,19 @@
         <v>4526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1749</v>
+        <v>1866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8643</v>
+        <v>9310</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004322129486296131</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001670492549870193</v>
+        <v>0.001782229776096966</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008253108362479127</v>
+        <v>0.008889393360021229</v>
       </c>
     </row>
     <row r="11">
@@ -2538,19 +2538,19 @@
         <v>1042737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1038620</v>
+        <v>1037953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1045514</v>
+        <v>1045397</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9956778705137037</v>
+        <v>0.9956778705137039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9917468916375211</v>
+        <v>0.9911106066399789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983295074501298</v>
+        <v>0.9982177702239032</v>
       </c>
     </row>
     <row r="12">
@@ -2600,19 +2600,19 @@
         <v>1563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5132</v>
+        <v>4963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001722499404346029</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.000426704015989114</v>
+        <v>0.0004220805593035618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005656385832879063</v>
+        <v>0.005470616681796695</v>
       </c>
     </row>
     <row r="14">
@@ -2629,19 +2629,19 @@
         <v>905714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902145</v>
+        <v>902314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>906890</v>
+        <v>906894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9982775005956539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9943436141671208</v>
+        <v>0.9945293833182016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9995732959840108</v>
+        <v>0.9995779194406964</v>
       </c>
     </row>
     <row r="15">
@@ -2691,19 +2691,19 @@
         <v>18236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11700</v>
+        <v>11840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26583</v>
+        <v>26279</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.00494151924542801</v>
+        <v>0.004941519245428011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003170387715069398</v>
+        <v>0.003208263174816966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007203175408774222</v>
+        <v>0.007120689463982103</v>
       </c>
     </row>
     <row r="17">
@@ -2720,19 +2720,19 @@
         <v>3672223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3663876</v>
+        <v>3664180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3678759</v>
+        <v>3678619</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9950584807545721</v>
+        <v>0.9950584807545719</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9927968245912258</v>
+        <v>0.9928793105360172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9968296122849306</v>
+        <v>0.996791736825183</v>
       </c>
     </row>
     <row r="18">
